--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.954000000000001</v>
+        <v>-7.587999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.862</v>
+        <v>-12.994</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -522,10 +522,10 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.299000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>12.992</v>
+        <v>12.771</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.832</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.018</v>
+        <v>13.003</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.044</v>
+        <v>-11.944</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.214</v>
+        <v>-12.953</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.038</v>
+        <v>13.258</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +825,7 @@
         <v>5.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.662</v>
+        <v>-12.813</v>
       </c>
       <c r="D23" t="n">
         <v>-8.529999999999999</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.82</v>
+        <v>-13.197</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
